--- a/data/s_vals/2022/bard_luke.xlsx
+++ b/data/s_vals/2022/bard_luke.xlsx
@@ -472,22 +472,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.642121602190766</v>
+        <v>3.286832544864788</v>
       </c>
       <c r="C2" t="n">
-        <v>1.307360055219643</v>
+        <v>1.655778082260271</v>
       </c>
       <c r="D2" t="n">
-        <v>0.4893031109320483</v>
+        <v>0.7527432677738641</v>
       </c>
       <c r="E2" t="n">
-        <v>0.8185319587781588</v>
+        <v>10.19245300693656</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>6.257316727120616</v>
+        <v>15.88780690183548</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/bard_luke.xlsx
+++ b/data/s_vals/2022/bard_luke.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>sum</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Save</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -488,6 +493,9 @@
       </c>
       <c r="G2" t="n">
         <v>15.88780690183548</v>
+      </c>
+      <c r="H2" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/data/s_vals/2022/bard_luke.xlsx
+++ b/data/s_vals/2022/bard_luke.xlsx
@@ -477,22 +477,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>3.286832544864788</v>
+        <v>3.272327238179451</v>
       </c>
       <c r="C2" t="n">
-        <v>1.655778082260271</v>
+        <v>1.626987699542094</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7527432677738641</v>
+        <v>0.7210945179870265</v>
       </c>
       <c r="E2" t="n">
-        <v>10.19245300693656</v>
+        <v>13.86384647080068</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>15.88780690183548</v>
+        <v>19.48425592650926</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
